--- a/medicine/Enfance/Jean-Marie_Poupart/Jean-Marie_Poupart.xlsx
+++ b/medicine/Enfance/Jean-Marie_Poupart/Jean-Marie_Poupart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jean-Marie Poupart, né le 13 décembre 1946 à Saint-Constant, au Québec, et mort le 9 juillet 2004 à Montréal[1], est un romancier, nouvelliste et essayiste québécois, auteur de plusieurs romans policiers et ouvrages de littérature d'enfance et de jeunesse.
+Jean-Marie Poupart, né le 13 décembre 1946 à Saint-Constant, au Québec, et mort le 9 juillet 2004 à Montréal, est un romancier, nouvelliste et essayiste québécois, auteur de plusieurs romans policiers et ouvrages de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient une licence en lettres à l'Université de Montréal en 1969, puis enseigne le français au Cégep de Saint-Jean-sur-Richelieu.
 Avant d'être lecteur de manuscrits pour les éditions Leméac, il occupe cette fonction aux éditions du Jour, où il publie en 1968 Angoisse play, son premier roman. Après cette date, il publie régulièrement des romans, des romans policiers et des nouvelles dans des recueils collectifs. 
 En 1975, il signe, en collaboration avec Mireille Levert aux illustrations, Bourru mouillé, un premier ouvrage de littérature d'enfance et de jeunesse qui sera suivi de romans jeunesse aux éditions La Courte Échelle.
-Il est « un des cinq membres fondateurs de l'UNEQ, en 1977 »[2].
+Il est « un des cinq membres fondateurs de l'UNEQ, en 1977 ».
 Collaborateur à la revue La Barre du jour, au magazine L'Actualité et critique de cinéma pour Le Devoir, il meurt subitement en juillet 2004.
 </t>
         </is>
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Angoisse play (1968)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Angoisse play (1968)
 Que le diable emporte le titre (1969)
 Ma tite vache a mal aux pattes (1970)
 Les Récréants (1972)
@@ -564,9 +583,43 @@
 La Semaine du contrat (1988)
 L'Accident du rang Saint-Roch (1991) ; réédition, Bibliothèque québécoise (2006)
 Bon à tirer (1993)
-On a raison de faire le caméléon (1999)
-Littérature d'enfance et de jeunesse
-Bourru mouillé (1975)
+On a raison de faire le caméléon (1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Marie_Poupart</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Marie_Poupart</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bourru mouillé (1975)
 Une journée dans la vie de Craquelin 1er, roi de Soupe-au-Lait (1981)
 Nuits magiques (1982)
 Drôle de pique-nique pour le roi Craquelin (1982)
@@ -577,14 +630,82 @@
 Des photos qui parlent (1991)
 Des pianos qui s'envolent (1992)
 Des crayons qui trichent (1993)
-Les mots font la grève (1999)
-Recueils de nouvelles
-Crapauds et autres animaux (1981), ouvrage collectif
+Les mots font la grève (1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Marie_Poupart</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Marie_Poupart</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Crapauds et autres animaux (1981), ouvrage collectif
 Fuites et Poursuites (1982), ouvrage collectif de nouvelles policières
 Dix nouvelles humoristiques par dix auteurs québécois (1984), ouvrage collectif
-Crever l'écran (1986), ouvrage collectif
-Essai
-J'écris tout le temps: par besoin, par plaisir, par passion (2003)</t>
+Crever l'écran (1986), ouvrage collectif</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Marie_Poupart</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Marie_Poupart</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>J'écris tout le temps: par besoin, par plaisir, par passion (2003)</t>
         </is>
       </c>
     </row>
